--- a/Euxoloti 1.2/Hardware/BOMs/control 1-2 bom.xlsx
+++ b/Euxoloti 1.2/Hardware/BOMs/control 1-2 bom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>Qty</t>
   </si>
@@ -250,13 +250,22 @@
   </si>
   <si>
     <t>68R</t>
+  </si>
+  <si>
+    <t>10K, linear</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>612-LP4OA1PBCTR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +318,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -333,7 +347,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -373,8 +387,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -401,8 +417,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -422,6 +439,7 @@
     <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -441,6 +459,7 @@
     <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -783,10 +802,12 @@
     <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +826,11 @@
       <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -820,7 +844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -834,7 +858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -848,7 +872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -862,7 +886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -876,7 +900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -893,7 +917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -910,7 +934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -927,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -944,7 +968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="60">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="60">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -961,7 +985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -975,7 +999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -992,7 +1016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1012,7 +1036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1029,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1044,12 +1068,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" ht="30">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="30">
       <c r="A23" s="7">
         <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>32</v>
@@ -1058,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1074,8 +1098,11 @@
       <c r="F24" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G24" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1092,7 +1119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1109,7 +1136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1126,7 +1153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1143,7 +1170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1194,6 +1221,12 @@
       </c>
       <c r="E37" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <f>SUM(A2:A37)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18">
